--- a/sks-kobe-t/pdf/report6.xlsx
+++ b/sks-kobe-t/pdf/report6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\警備報告書\三菱倉庫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A89318-E8A2-44FA-8DDC-E07BF64B2285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE222EA1-707A-45E0-B43F-8B696170B144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>契約先</t>
     <rPh sb="0" eb="3">
@@ -280,9 +280,6 @@
   <si>
     <t>～</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>㊞</t>
   </si>
   <si>
     <t>（株）新神戸セキュリティ</t>
@@ -1438,7 +1435,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1490,7 +1487,7 @@
     <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1514,7 +1511,7 @@
     <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1525,7 +1522,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1538,7 +1535,7 @@
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1563,7 +1560,7 @@
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -1603,9 +1600,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
@@ -2051,7 +2046,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="33"/>
@@ -2089,12 +2084,12 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" s="56"/>
       <c r="M26" s="35"/>
@@ -2106,7 +2101,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R28" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sks-kobe-t/pdf/report6.xlsx
+++ b/sks-kobe-t/pdf/report6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE222EA1-707A-45E0-B43F-8B696170B144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332708A-8E86-4311-9494-D58275E33D7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>契約先</t>
     <rPh sb="0" eb="3">
@@ -209,20 +209,6 @@
     <rPh sb="16" eb="18">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巡　回　</t>
-    <rPh sb="0" eb="1">
-      <t>メグル</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -509,7 +495,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -558,19 +544,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="hair">
         <color auto="1"/>
@@ -631,36 +604,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="hair">
         <color auto="1"/>
@@ -922,177 +865,195 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,41 +1424,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="A1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="B2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
@@ -1510,8 +1471,8 @@
     </row>
     <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="27" t="s">
-        <v>23</v>
+      <c r="B3" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1521,8 +1482,8 @@
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="27" t="s">
-        <v>27</v>
+      <c r="K3" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1534,8 +1495,8 @@
     </row>
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
-      <c r="B4" s="38" t="s">
-        <v>25</v>
+      <c r="B4" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1544,12 +1505,12 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="45"/>
+      <c r="J4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="38"/>
       <c r="L4" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1559,17 +1520,17 @@
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
+      <c r="A5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
       <c r="L5" s="16"/>
@@ -1581,17 +1542,17 @@
       <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="A6" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="19"/>
@@ -1600,7 +1561,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="29"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
@@ -1685,7 +1646,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
@@ -1709,7 +1670,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -1926,116 +1887,52 @@
       <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="24">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="62"/>
+    </row>
+    <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="25">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="25">
-        <v>3</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="25">
-        <v>4</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="25">
-        <v>5</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="25">
-        <v>6</v>
-      </c>
-      <c r="M22" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="25">
-        <v>7</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>8</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
-      <c r="B23" s="24">
-        <v>9</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="25">
-        <v>10</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="25">
-        <v>11</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="25">
-        <v>12</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="25">
-        <v>13</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="25">
-        <v>14</v>
-      </c>
-      <c r="M23" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="25">
-        <v>15</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>16</v>
-      </c>
-      <c r="R23" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="52"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="14"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -2044,19 +1941,17 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="54" t="s">
-        <v>26</v>
-      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="34"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2067,54 +1962,52 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="55"/>
+      <c r="L25" s="46"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="34"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
+      <c r="H26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="R28" s="30" t="s">
-        <v>20</v>
+      <c r="R28" s="27" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55118110236220474" right="0.39370078740157483" top="0.79" bottom="0.36" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sks-kobe-t/pdf/report6.xlsx
+++ b/sks-kobe-t/pdf/report6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332708A-8E86-4311-9494-D58275E33D7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BE3CFC-C721-4DA7-A817-52C356EE98D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,63 +348,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自）令和　　年　　月　　日　　曜日　　時　　分</t>
+    <t>自）    　　年　　月　　日　　曜日　　時　　分</t>
     <rPh sb="0" eb="1">
       <t>ジ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="8" eb="9">
       <t>ネン</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="11" eb="12">
       <t>ツキ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="14" eb="15">
       <t>ヒ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="17" eb="19">
       <t>ヨウビ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="21" eb="22">
       <t>ジ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="24" eb="25">
       <t>フン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>至）令和　　年　　月　　日　　曜日　　時　　分</t>
+    <t>至）    　　年　　月　　日　　曜日　　時　　分</t>
     <rPh sb="0" eb="1">
       <t>イタ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="8" eb="9">
       <t>ネン</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="11" eb="12">
       <t>ツキ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="14" eb="15">
       <t>ヒ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="17" eb="19">
       <t>ヨウビ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="21" eb="22">
       <t>ジ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="24" eb="25">
       <t>フン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -974,6 +962,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,6 +1022,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1010,9 +1034,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1021,39 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1424,26 +1412,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -1505,10 +1493,10 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1520,17 +1508,17 @@
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
       <c r="L5" s="16"/>
@@ -1542,17 +1530,17 @@
       <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="19"/>
@@ -1887,51 +1875,51 @@
       <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="62"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="45" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="52"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1942,7 +1930,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="46"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="22"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
@@ -1951,7 +1939,7 @@
       <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1962,7 +1950,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="46"/>
+      <c r="L25" s="58"/>
       <c r="M25" s="22"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
@@ -1971,7 +1959,7 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1986,7 +1974,7 @@
       <c r="K26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="47"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
@@ -2001,13 +1989,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55118110236220474" right="0.39370078740157483" top="0.79" bottom="0.36" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sks-kobe-t/pdf/report6.xlsx
+++ b/sks-kobe-t/pdf/report6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BE3CFC-C721-4DA7-A817-52C356EE98D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC4515-7DD4-4118-AB9C-6C4E1AC95CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,40 +32,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ⅰ．Ｃ－５　ＣＦＳゲート立哨</t>
-    <rPh sb="12" eb="14">
-      <t>リッショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ⅱ．搬入出車輛</t>
-    <rPh sb="2" eb="4">
-      <t>ハンニュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ⅲ．ＣＦＳゲート解錠及び施錠　　</t>
-    <rPh sb="8" eb="10">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -83,34 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ⅰ．事務所並びに倉庫の火災、盗難等の警戒警備</t>
-    <rPh sb="2" eb="5">
-      <t>ジムショ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウコ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カサイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウナン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケイカイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　　不法侵入者の警戒監視</t>
     <rPh sb="3" eb="5">
       <t>フホウ</t>
@@ -130,31 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ⅱ．搬入出車輛及び外来者の適正誘導</t>
-    <rPh sb="2" eb="4">
-      <t>ハンニュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガイライシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テキセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ユウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>３．実施</t>
     <rPh sb="2" eb="4">
       <t>ジッシ</t>
@@ -162,56 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ⅰ．夜間巡回、警戒警備及び外周赤外線システムの監視</t>
-    <rPh sb="2" eb="4">
-      <t>ヤカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケイビ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガイシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>セキガイセン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ⅱ．事務所並びに倉庫の鍵の保管・管理</t>
-    <rPh sb="2" eb="5">
-      <t>ジムショ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウコ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>警  備  報  告  書</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
@@ -394,6 +258,142 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．Ｃ－５　ＣＦＳゲート立哨</t>
+    <rPh sb="12" eb="14">
+      <t>リッショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．搬入出車輛</t>
+    <rPh sb="2" eb="4">
+      <t>ハンニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．ＣＦＳゲート解錠及び施錠　　</t>
+    <rPh sb="8" eb="10">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．事務所並びに倉庫の火災、盗難等の警戒警備</t>
+    <rPh sb="2" eb="5">
+      <t>ジムショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウナン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．搬入出車輛及び外来者の適正誘導</t>
+    <rPh sb="2" eb="4">
+      <t>ハンニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガイライシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．夜間巡回、警戒警備及び外周赤外線システムの監視</t>
+    <rPh sb="2" eb="4">
+      <t>ヤカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セキガイセン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．事務所並びに倉庫の鍵の保管・管理</t>
+    <rPh sb="2" eb="5">
+      <t>ジムショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -995,6 +995,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,24 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1412,31 +1412,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="A1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1460,7 +1460,7 @@
     <row r="3" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1484,7 +1484,7 @@
     <row r="4" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1493,12 +1493,12 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="49"/>
+      <c r="J4" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="55"/>
       <c r="L4" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1508,17 +1508,17 @@
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="A5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="16"/>
       <c r="K5" s="15"/>
       <c r="L5" s="16"/>
@@ -1530,17 +1530,17 @@
       <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="A6" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="19"/>
       <c r="K6" s="18"/>
       <c r="L6" s="19"/>
@@ -1576,7 +1576,7 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1599,7 +1599,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="20" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -1610,7 +1610,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -1623,7 +1623,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="20" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -1634,7 +1634,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
@@ -1647,7 +1647,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -1658,7 +1658,7 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
@@ -1690,7 +1690,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1713,7 +1713,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1734,7 +1734,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1755,7 +1755,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -1795,7 +1795,7 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1818,7 +1818,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -1839,7 +1839,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -1887,16 +1887,16 @@
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
       <c r="O22" s="45"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60" t="s">
-        <v>14</v>
+      <c r="A23" s="50" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="39"/>
@@ -1908,8 +1908,8 @@
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="57" t="s">
-        <v>24</v>
+      <c r="L23" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="M23" s="37"/>
       <c r="N23" s="36"/>
@@ -1919,7 +1919,7 @@
       <c r="R23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1930,7 +1930,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="58"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="22"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
@@ -1939,7 +1939,7 @@
       <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1950,7 +1950,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="58"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="22"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
@@ -1959,7 +1959,7 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1967,14 +1967,14 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="59"/>
+        <v>13</v>
+      </c>
+      <c r="L26" s="49"/>
       <c r="M26" s="32"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R28" s="27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
